--- a/Backlog_and_Release/03_Product_Backlog.xlsx
+++ b/Backlog_and_Release/03_Product_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deisyguerrero/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deisyguerrero/Documents/ProyectoSoftwareRCP/Backlog_and_Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6B16DE-1DCF-9B49-87CF-6DFDA5DFF2E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9F0A5B-6840-6548-B148-F7C91A124EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Repositorio (GitHub) donde integrarán el trabajo</t>
-  </si>
-  <si>
-    <t>Gestión de configuración.</t>
   </si>
   <si>
     <t>Historias de usuario a desarrollar en el Sprint 1</t>
@@ -275,6 +272,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Gestión de la configuración.</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1243,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H10" s="16">
         <v>44442</v>
@@ -1279,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H11" s="16">
         <v>44442</v>
@@ -1315,19 +1318,19 @@
         <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H12" s="16">
         <v>44442</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J12" s="18">
         <v>1</v>
       </c>
       <c r="K12" s="12">
-        <f t="shared" si="0"/>
+        <f>(F12/E12)-1</f>
         <v>0.11111111111111116</v>
       </c>
     </row>
@@ -1351,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H13" s="16">
         <v>44442</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="15">
         <v>1</v>
@@ -1387,13 +1390,13 @@
         <v>2</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H14" s="16">
         <v>44442</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="15">
         <v>1</v>
@@ -1429,7 +1432,7 @@
         <v>44442</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="18">
         <v>1</v>
@@ -1465,7 +1468,7 @@
         <v>44442</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="18">
         <v>1</v>
@@ -1501,7 +1504,7 @@
         <v>44442</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="18">
         <v>1</v>
@@ -4544,9 +4547,9 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4563,11 +4566,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
@@ -4651,31 +4654,31 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
@@ -4700,10 +4703,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="31">
         <v>0.9</v>
@@ -4715,13 +4718,13 @@
         <v>100</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="I5" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -4746,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>11</v>
@@ -4761,13 +4764,13 @@
         <v>100</v>
       </c>
       <c r="G6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="I6" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -4792,10 +4795,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="31">
         <v>0.9</v>
@@ -4807,13 +4810,13 @@
         <v>100</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -4838,10 +4841,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D8" s="31">
         <v>0.9</v>
@@ -4853,13 +4856,13 @@
         <v>100</v>
       </c>
       <c r="G8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="I8" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -4884,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>11</v>
@@ -4899,13 +4902,13 @@
         <v>100</v>
       </c>
       <c r="G9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="I9" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -4930,7 +4933,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>11</v>
@@ -4945,13 +4948,13 @@
         <v>100</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -4976,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>11</v>
@@ -4991,13 +4994,13 @@
         <v>100</v>
       </c>
       <c r="G11" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="I11" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>45</v>
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -5022,7 +5025,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>11</v>
@@ -5037,13 +5040,13 @@
         <v>100</v>
       </c>
       <c r="G12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="I12" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
